--- a/biology/Zoologie/Dolichopoda/Dolichopoda.xlsx
+++ b/biology/Zoologie/Dolichopoda/Dolichopoda.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Dolichopoda est un genre d'insectes orthoptères ensifères de la famille des Rhaphidophoridae. Ce sont des animaux lucifuges qui vivent la plupart du temps dans des cavités obscures : grottes, caves...Il est à noter qu'en 1982, André Lopez et Francis Marcou ont "transplanté" dans la grotte du Gourp des Boeufs (Saint-Jean du Minervois, Hérault) Dolichopoda linderi provenant de la caverne de Sirach (Ria, Pyrénées orientales). Inconnue jusqu'alors dans cette partie de l' Occitanie, l'espèce roussillonnaise s'y est parfaitement naturalisée (lien externe). 
 </t>
@@ -511,7 +523,9 @@
           <t>Liste d'espèces en Europe</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Dolichopoda aegilion
